--- a/Calendar Template.xlsx
+++ b/Calendar Template.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Sem II" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -221,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -230,32 +227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -295,34 +266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -415,92 +358,345 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,23 +714,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Zadania"/>
-      <sheetName val="19-25.10"/>
-      <sheetName val="26.10-01.11"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,342 +1024,342 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6" t="s">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="36" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="36"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="36"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="36"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="36"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="36"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="36"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1197,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,411 +1396,418 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="13"/>
       <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="25" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="34"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="35"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="29" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="29" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="26" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="31" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6" t="s">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="36" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="36"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="36"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="36"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="36"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="36"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="36"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="36"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="45"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="I22:I30"/>
@@ -1633,13 +1819,6 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
